--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1795.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1795.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169784958378769</v>
+        <v>0.710262656211853</v>
       </c>
       <c r="B1">
-        <v>2.302387989330161</v>
+        <v>1.457847595214844</v>
       </c>
       <c r="C1">
-        <v>4.89642755138429</v>
+        <v>3.973063230514526</v>
       </c>
       <c r="D1">
-        <v>2.696816238926477</v>
+        <v>2.704084157943726</v>
       </c>
       <c r="E1">
-        <v>1.123650638010966</v>
+        <v>0.696803092956543</v>
       </c>
     </row>
   </sheetData>
